--- a/storage/file/sekolah.xlsx
+++ b/storage/file/sekolah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="308">
   <si>
     <t>nama</t>
   </si>
@@ -40,18 +40,12 @@
     <t>SMP IT Madina</t>
   </si>
   <si>
-    <t xml:space="preserve">SD Katolik 1 WR. Soepratman </t>
-  </si>
-  <si>
     <t>SD Muhammadiyah 2</t>
   </si>
   <si>
     <t>SD Islam Terpadu Cordova</t>
   </si>
   <si>
-    <t>SD Fastabiqul Khairat</t>
-  </si>
-  <si>
     <t>SD Al Firdaus Islamic School</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>SD Muhammadiyah 5</t>
   </si>
   <si>
-    <t>SD IT Nurul Hadi 028</t>
-  </si>
-  <si>
     <t>SD Islam Darul Fata</t>
   </si>
   <si>
@@ -142,12 +133,6 @@
     <t>SD Tiga Bahasa</t>
   </si>
   <si>
-    <t>SD IT Madina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD IT Al Anshar </t>
-  </si>
-  <si>
     <t>SD Katolik Hati Kudus</t>
   </si>
   <si>
@@ -421,9 +406,6 @@
     <t xml:space="preserve">SDN 010 Samarinda Ulu  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 011 Samarinda Ulu  </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 012 Samarinda Ulu  </t>
   </si>
   <si>
@@ -436,9 +418,6 @@
     <t xml:space="preserve">SDN 018 Samarinda Ulu  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 019 Samarinda Ulu </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 020 Samarinda Ulu  </t>
   </si>
   <si>
@@ -448,57 +427,18 @@
     <t xml:space="preserve">SDN 022 Samarinda Ulu  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 023 Samarinda Ulu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 024 Samarinda Ulu  </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 025 Samarinda Ulu  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 026 Samarinda Ulu  </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 027 Samarinda Ulu  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 031 Samarinda Ulu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 034 Samarinda Ulu  </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 009 Samarinda Ilir  </t>
   </si>
   <si>
     <t xml:space="preserve">SDN 010 Samarinda Ilir  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 014 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 015 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 017 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 020 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 022 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 026 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 028 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t>SDN 034 Samarinda Utara</t>
-  </si>
-  <si>
     <t>SDN 001 Samarinda Seberang</t>
   </si>
   <si>
@@ -511,9 +451,6 @@
     <t xml:space="preserve">SDN 005 Samarinda Seberang  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 006 Samarinda Seberang  </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 008 Samarinda Seberang  </t>
   </si>
   <si>
@@ -526,21 +463,6 @@
     <t xml:space="preserve">SDN 013 Samarinda Seberang  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 017 Samarinda Seberang  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 018 Samarinda Seberang  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 019 Samarinda Seberang  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 021 Samarinda Seberang  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 022 Samarinda Seberang  </t>
-  </si>
-  <si>
     <t>SDN 001 Palaran</t>
   </si>
   <si>
@@ -712,60 +634,15 @@
     <t xml:space="preserve">SDN 025 Samarinda Utara  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 026 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 027 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 028 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 029 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 030 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 033 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 035 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 039 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 040 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 041 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 042 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 043 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t>SDN 002 Samarinda Ulu</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 007 Samarinda Ulu  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 015 Samarinda Ulu  </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 001 Samarinda Ilir  </t>
   </si>
   <si>
     <t xml:space="preserve">SDN 002 Samarinda Ilir  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 003 Samarinda Ilir  </t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 004 Samarinda Ilir  </t>
   </si>
   <si>
@@ -775,102 +652,9 @@
     <t xml:space="preserve">SDN 006 Samarinda Ilir  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 011 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 013 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t>SDN 018 Samarinda Ilir</t>
-  </si>
-  <si>
-    <t>SDN 019 Samarinda Ilir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 030 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 031 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 032 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 033 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 034 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 035 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 036 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 038 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 039 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 040 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 041 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 042 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 043 Samarinda Ilir  </t>
-  </si>
-  <si>
-    <t>SDN 003 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 010 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 012 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 016 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 024 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 025 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 026 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 027 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 028 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 029 Samarinda Seberang</t>
-  </si>
-  <si>
-    <t>SDN 001 Samarinda Utara</t>
-  </si>
-  <si>
-    <t>SDN 003 Samarinda Utara</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 004 Samarinda Utara  </t>
   </si>
   <si>
-    <t>SDN 005 Samarinda Utara</t>
-  </si>
-  <si>
-    <t>SDN 006 Samarinda Utara</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDN 010 Samarinda Utara  </t>
   </si>
   <si>
@@ -889,22 +673,271 @@
     <t xml:space="preserve">SDN 024 Samarinda Utara  </t>
   </si>
   <si>
-    <t xml:space="preserve">SDN 031 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 032 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 036 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 037 Samarinda Utara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN 038 Samarinda Utara  </t>
-  </si>
-  <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>Samarinda Ulu</t>
+  </si>
+  <si>
+    <t>Samarinda Ilir</t>
+  </si>
+  <si>
+    <t>Samarinda Seberang</t>
+  </si>
+  <si>
+    <t>Palaran</t>
+  </si>
+  <si>
+    <t>Sungai Kunjang</t>
+  </si>
+  <si>
+    <t>Samarinda Utara</t>
+  </si>
+  <si>
+    <t>Samarinda Kota</t>
+  </si>
+  <si>
+    <t>Sambutan</t>
+  </si>
+  <si>
+    <t>Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>Sungai Pinang</t>
+  </si>
+  <si>
+    <t>Sungai kunjang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 002 Samarinda Ulu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 008 Samarinda Ulu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 013 Samarinda Ulu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 015 Samarinda Ulu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 016 Samarinda Ulu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 019 Samarinda Ulu  </t>
+  </si>
+  <si>
+    <t>SD Katolik 1 WR. Soepratman</t>
+  </si>
+  <si>
+    <t>SD Islam Fastabiqul Khairat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 007 Samarinda Ilir  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 008 Samarinda Ilir  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 012 Samarinda Ilir  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 003 Samarinda Seberang  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 007 Samarinda Seberang  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 010 Samarinda Seberang  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 012 Samarinda Seberang  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 015 Samarinda Seberang  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 016 Samarinda Seberang  </t>
+  </si>
+  <si>
+    <t>SD Islam Terpadu Nurul Hadi 028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 001 Samarinda Utara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 003 Samarinda Utara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 005 Samarinda Utara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 006 Samarinda Utara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN 022 Samarinda Utara  </t>
+  </si>
+  <si>
+    <t>SDN 001 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 002 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 004 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 005 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 006 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 007 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 008 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 009 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 010 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 011 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 012 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 013 Samarinda Kota</t>
+  </si>
+  <si>
+    <t>SDN 001 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 002 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 003 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 004 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 005 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 006 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 007 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 008 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 009 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 010 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 011 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 012 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 013 Sambutan</t>
+  </si>
+  <si>
+    <t>SDN 014 Sambutan</t>
+  </si>
+  <si>
+    <t>SD Islam Terpadu Madina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Islam Terpadu Al - Anshar </t>
+  </si>
+  <si>
+    <t>SDN 001 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 002 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 003 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 004 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 005 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 006 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 007 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 008 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 009 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 010 Loa Janan Ilir</t>
+  </si>
+  <si>
+    <t>SDN 001 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 002 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 003 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 004 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 005 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 006 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 007 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 008 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 009 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 011 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 012 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 013 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 014 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 015 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 016 Sungai Pinang</t>
+  </si>
+  <si>
+    <t>SDN 017 Sungai Pinang</t>
   </si>
 </sst>
 </file>
@@ -1801,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D294"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1847,7 @@
     <col min="3" max="3" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1825,12 +1858,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B2" s="7">
         <v>6</v>
@@ -1841,10 +1874,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="B3" s="7">
         <v>6</v>
@@ -1855,10 +1891,13 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B4" s="7">
         <v>6</v>
@@ -1869,10 +1908,13 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5" s="7">
         <v>6</v>
@@ -1883,10 +1925,13 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B6" s="7">
         <v>6</v>
@@ -1897,10 +1942,13 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -1911,10 +1959,13 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
@@ -1925,10 +1976,13 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="B9" s="7">
         <v>6</v>
@@ -1939,10 +1993,13 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B10" s="7">
         <v>6</v>
@@ -1953,10 +2010,13 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B11" s="7">
         <v>6</v>
@@ -1967,10 +2027,13 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B12" s="7">
         <v>6</v>
@@ -1981,10 +2044,13 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="B13" s="7">
         <v>6</v>
@@ -1995,10 +2061,13 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B14" s="7">
         <v>6</v>
@@ -2009,10 +2078,13 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="B15" s="7">
         <v>6</v>
@@ -2023,10 +2095,13 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B16" s="7">
         <v>6</v>
@@ -2037,10 +2112,13 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B17" s="7">
         <v>6</v>
@@ -2051,10 +2129,13 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B18" s="7">
         <v>6</v>
@@ -2065,10 +2146,13 @@
       <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B19" s="7">
         <v>6</v>
@@ -2079,10 +2163,13 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B20" s="7">
         <v>6</v>
@@ -2093,10 +2180,13 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B21" s="7">
         <v>6</v>
@@ -2107,10 +2197,13 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
@@ -2121,10 +2214,13 @@
       <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B23" s="7">
         <v>6</v>
@@ -2135,10 +2231,13 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B24" s="7">
         <v>6</v>
@@ -2149,10 +2248,13 @@
       <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="B25" s="7">
         <v>6</v>
@@ -2163,10 +2265,13 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="7">
         <v>6</v>
@@ -2177,10 +2282,13 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="7">
         <v>6</v>
@@ -2191,10 +2299,13 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="B28" s="7">
         <v>6</v>
@@ -2205,10 +2316,13 @@
       <c r="D28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" s="7">
         <v>6</v>
@@ -2219,8 +2333,11 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -2233,10 +2350,13 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
@@ -2247,10 +2367,13 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="B32" s="7">
         <v>3</v>
@@ -2261,10 +2384,13 @@
       <c r="D32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
@@ -2275,10 +2401,13 @@
       <c r="D33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B34" s="7">
         <v>3</v>
@@ -2289,10 +2418,13 @@
       <c r="D34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="B35" s="7">
         <v>3</v>
@@ -2303,10 +2435,13 @@
       <c r="D35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="B36" s="7">
         <v>3</v>
@@ -2317,10 +2452,13 @@
       <c r="D36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="B37" s="7">
         <v>3</v>
@@ -2331,10 +2469,13 @@
       <c r="D37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B38" s="7">
         <v>3</v>
@@ -2345,10 +2486,13 @@
       <c r="D38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B39" s="7">
         <v>3</v>
@@ -2359,10 +2503,13 @@
       <c r="D39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="B40" s="7">
         <v>3</v>
@@ -2373,10 +2520,13 @@
       <c r="D40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="7">
         <v>3</v>
@@ -2387,10 +2537,13 @@
       <c r="D41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="7">
         <v>3</v>
@@ -2401,10 +2554,13 @@
       <c r="D42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" s="7">
         <v>3</v>
@@ -2415,10 +2571,13 @@
       <c r="D43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B44" s="7">
         <v>5</v>
@@ -2429,10 +2588,13 @@
       <c r="D44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B45" s="7">
         <v>5</v>
@@ -2443,10 +2605,13 @@
       <c r="D45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="B46" s="7">
         <v>5</v>
@@ -2457,10 +2622,13 @@
       <c r="D46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B47" s="7">
         <v>5</v>
@@ -2471,10 +2639,13 @@
       <c r="D47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B48" s="7">
         <v>5</v>
@@ -2485,10 +2656,13 @@
       <c r="D48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="B49" s="7">
         <v>5</v>
@@ -2499,10 +2673,13 @@
       <c r="D49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B50" s="7">
         <v>5</v>
@@ -2513,10 +2690,13 @@
       <c r="D50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B51" s="7">
         <v>5</v>
@@ -2527,10 +2707,13 @@
       <c r="D51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="B52" s="7">
         <v>5</v>
@@ -2541,10 +2724,13 @@
       <c r="D52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B53" s="7">
         <v>5</v>
@@ -2555,10 +2741,13 @@
       <c r="D53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="B54" s="7">
         <v>5</v>
@@ -2569,10 +2758,13 @@
       <c r="D54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B55" s="7">
         <v>5</v>
@@ -2583,10 +2775,13 @@
       <c r="D55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="B56" s="7">
         <v>5</v>
@@ -2597,10 +2792,13 @@
       <c r="D56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="B57" s="7">
         <v>5</v>
@@ -2611,10 +2809,13 @@
       <c r="D57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="7">
         <v>5</v>
@@ -2625,10 +2826,13 @@
       <c r="D58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B59" s="7">
         <v>5</v>
@@ -2639,10 +2843,13 @@
       <c r="D59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B60" s="7">
         <v>5</v>
@@ -2653,10 +2860,13 @@
       <c r="D60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" s="7">
         <v>5</v>
@@ -2667,10 +2877,13 @@
       <c r="D61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B62" s="7">
         <v>2</v>
@@ -2681,10 +2894,13 @@
       <c r="D62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B63" s="7">
         <v>2</v>
@@ -2695,10 +2911,13 @@
       <c r="D63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B64" s="7">
         <v>2</v>
@@ -2709,10 +2928,13 @@
       <c r="D64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B65" s="7">
         <v>2</v>
@@ -2723,10 +2945,13 @@
       <c r="D65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B66" s="7">
         <v>2</v>
@@ -2737,10 +2962,13 @@
       <c r="D66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B67" s="7">
         <v>2</v>
@@ -2751,10 +2979,13 @@
       <c r="D67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B68" s="7">
         <v>2</v>
@@ -2765,10 +2996,13 @@
       <c r="D68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B69" s="7">
         <v>2</v>
@@ -2779,10 +3013,13 @@
       <c r="D69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B70" s="7">
         <v>2</v>
@@ -2793,10 +3030,13 @@
       <c r="D70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B71" s="7">
         <v>2</v>
@@ -2807,10 +3047,13 @@
       <c r="D71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B72" s="7">
         <v>2</v>
@@ -2821,10 +3064,13 @@
       <c r="D72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B73" s="7">
         <v>2</v>
@@ -2835,10 +3081,13 @@
       <c r="D73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B74" s="7">
         <v>2</v>
@@ -2849,10 +3098,13 @@
       <c r="D74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B75" s="7">
         <v>2</v>
@@ -2863,10 +3115,13 @@
       <c r="D75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B76" s="7">
         <v>2</v>
@@ -2877,10 +3132,13 @@
       <c r="D76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B77" s="7">
         <v>2</v>
@@ -2891,10 +3149,13 @@
       <c r="D77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B78" s="7">
         <v>2</v>
@@ -2905,10 +3166,13 @@
       <c r="D78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B79" s="7">
         <v>2</v>
@@ -2919,10 +3183,13 @@
       <c r="D79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B80" s="7">
         <v>2</v>
@@ -2933,10 +3200,13 @@
       <c r="D80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B81" s="7">
         <v>2</v>
@@ -2947,10 +3217,13 @@
       <c r="D81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B82" s="7">
         <v>2</v>
@@ -2961,10 +3234,13 @@
       <c r="D82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B83" s="7">
         <v>2</v>
@@ -2975,10 +3251,13 @@
       <c r="D83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B84" s="7">
         <v>2</v>
@@ -2989,10 +3268,13 @@
       <c r="D84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B85" s="7">
         <v>2</v>
@@ -3003,10 +3285,13 @@
       <c r="D85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
@@ -3017,10 +3302,13 @@
       <c r="D86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B87" s="7">
         <v>2</v>
@@ -3031,10 +3319,13 @@
       <c r="D87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B88" s="7">
         <v>9</v>
@@ -3045,10 +3336,13 @@
       <c r="D88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B89" s="7">
         <v>9</v>
@@ -3059,10 +3353,13 @@
       <c r="D89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B90" s="7">
         <v>9</v>
@@ -3073,10 +3370,13 @@
       <c r="D90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B91" s="7">
         <v>9</v>
@@ -3087,10 +3387,13 @@
       <c r="D91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B92" s="7">
         <v>9</v>
@@ -3101,10 +3404,13 @@
       <c r="D92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B93" s="7">
         <v>9</v>
@@ -3115,10 +3421,13 @@
       <c r="D93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B94" s="7">
         <v>9</v>
@@ -3129,10 +3438,13 @@
       <c r="D94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B95" s="7">
         <v>9</v>
@@ -3143,10 +3455,13 @@
       <c r="D95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B96" s="7">
         <v>9</v>
@@ -3157,10 +3472,13 @@
       <c r="D96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B97" s="7">
         <v>9</v>
@@ -3171,10 +3489,13 @@
       <c r="D97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B98" s="7">
         <v>9</v>
@@ -3185,10 +3506,13 @@
       <c r="D98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B99" s="7">
         <v>9</v>
@@ -3199,10 +3523,13 @@
       <c r="D99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B100" s="7">
         <v>9</v>
@@ -3213,10 +3540,13 @@
       <c r="D100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B101" s="7">
         <v>9</v>
@@ -3227,10 +3557,13 @@
       <c r="D101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B102" s="7">
         <v>9</v>
@@ -3241,10 +3574,13 @@
       <c r="D102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B103" s="7">
         <v>9</v>
@@ -3255,10 +3591,13 @@
       <c r="D103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B104" s="7">
         <v>9</v>
@@ -3269,10 +3608,13 @@
       <c r="D104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B105" s="7">
         <v>9</v>
@@ -3283,10 +3625,13 @@
       <c r="D105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B106" s="7">
         <v>9</v>
@@ -3297,10 +3642,13 @@
       <c r="D106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B107" s="7">
         <v>9</v>
@@ -3311,10 +3659,13 @@
       <c r="D107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B108" s="7">
         <v>9</v>
@@ -3325,10 +3676,13 @@
       <c r="D108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="B109" s="7">
         <v>9</v>
@@ -3339,10 +3693,13 @@
       <c r="D109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B110" s="7">
         <v>9</v>
@@ -3353,10 +3710,13 @@
       <c r="D110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B111" s="7">
         <v>9</v>
@@ -3367,10 +3727,13 @@
       <c r="D111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B112" s="7">
         <v>9</v>
@@ -3381,10 +3744,13 @@
       <c r="D112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B113" s="7">
         <v>9</v>
@@ -3395,10 +3761,13 @@
       <c r="D113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="B114" s="7">
         <v>7</v>
@@ -3409,10 +3778,13 @@
       <c r="D114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B115" s="7">
         <v>7</v>
@@ -3423,10 +3795,13 @@
       <c r="D115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="B116" s="7">
         <v>7</v>
@@ -3437,10 +3812,13 @@
       <c r="D116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B117" s="7">
         <v>7</v>
@@ -3451,10 +3829,13 @@
       <c r="D117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B118" s="7">
         <v>7</v>
@@ -3465,10 +3846,13 @@
       <c r="D118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="B119" s="7">
         <v>7</v>
@@ -3479,10 +3863,13 @@
       <c r="D119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B120" s="7">
         <v>7</v>
@@ -3493,10 +3880,13 @@
       <c r="D120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="B121" s="7">
         <v>7</v>
@@ -3507,10 +3897,13 @@
       <c r="D121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B122" s="7">
         <v>7</v>
@@ -3521,10 +3914,13 @@
       <c r="D122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B123" s="7">
         <v>7</v>
@@ -3535,10 +3931,13 @@
       <c r="D123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B124" s="7">
         <v>7</v>
@@ -3549,10 +3948,13 @@
       <c r="D124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="B125" s="7">
         <v>7</v>
@@ -3563,10 +3965,13 @@
       <c r="D125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B126" s="7">
         <v>7</v>
@@ -3577,10 +3982,13 @@
       <c r="D126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B127" s="7">
         <v>7</v>
@@ -3591,10 +3999,13 @@
       <c r="D127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B128" s="7">
         <v>7</v>
@@ -3605,10 +4016,13 @@
       <c r="D128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B129" s="7">
         <v>7</v>
@@ -3619,10 +4033,13 @@
       <c r="D129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B130" s="7">
         <v>7</v>
@@ -3633,10 +4050,13 @@
       <c r="D130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B131" s="7">
         <v>7</v>
@@ -3647,10 +4067,13 @@
       <c r="D131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B132" s="7">
         <v>7</v>
@@ -3661,10 +4084,13 @@
       <c r="D132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B133" s="7">
         <v>7</v>
@@ -3675,10 +4101,13 @@
       <c r="D133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B134" s="7">
         <v>7</v>
@@ -3689,10 +4118,13 @@
       <c r="D134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B135" s="7">
         <v>7</v>
@@ -3703,10 +4135,13 @@
       <c r="D135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B136" s="7">
         <v>7</v>
@@ -3717,10 +4152,13 @@
       <c r="D136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B137" s="7">
         <v>7</v>
@@ -3731,10 +4169,13 @@
       <c r="D137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B138" s="7">
         <v>7</v>
@@ -3745,10 +4186,13 @@
       <c r="D138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B139" s="7">
         <v>7</v>
@@ -3759,10 +4203,13 @@
       <c r="D139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B140" s="7">
         <v>7</v>
@@ -3773,10 +4220,13 @@
       <c r="D140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B141" s="7">
         <v>7</v>
@@ -3787,10 +4237,13 @@
       <c r="D141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B142" s="7">
         <v>7</v>
@@ -3801,10 +4254,13 @@
       <c r="D142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B143" s="7">
         <v>7</v>
@@ -3815,10 +4271,13 @@
       <c r="D143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B144" s="7">
         <v>7</v>
@@ -3829,10 +4288,13 @@
       <c r="D144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B145" s="7">
         <v>7</v>
@@ -3843,10 +4305,13 @@
       <c r="D145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B146" s="7">
         <v>4</v>
@@ -3857,10 +4322,13 @@
       <c r="D146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B147" s="7">
         <v>4</v>
@@ -3871,10 +4339,13 @@
       <c r="D147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B148" s="7">
         <v>4</v>
@@ -3885,10 +4356,13 @@
       <c r="D148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B149" s="7">
         <v>4</v>
@@ -3899,10 +4373,13 @@
       <c r="D149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B150" s="7">
         <v>4</v>
@@ -3913,10 +4390,13 @@
       <c r="D150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B151" s="7">
         <v>4</v>
@@ -3927,10 +4407,13 @@
       <c r="D151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B152" s="7">
         <v>4</v>
@@ -3941,10 +4424,13 @@
       <c r="D152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B153" s="7">
         <v>4</v>
@@ -3955,10 +4441,13 @@
       <c r="D153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B154" s="7">
         <v>4</v>
@@ -3969,10 +4458,13 @@
       <c r="D154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B155" s="7">
         <v>4</v>
@@ -3983,10 +4475,13 @@
       <c r="D155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B156" s="7">
         <v>4</v>
@@ -3997,10 +4492,13 @@
       <c r="D156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B157" s="7">
         <v>4</v>
@@ -4011,10 +4509,13 @@
       <c r="D157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B158" s="7">
         <v>4</v>
@@ -4025,10 +4526,13 @@
       <c r="D158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B159" s="7">
         <v>4</v>
@@ -4039,10 +4543,13 @@
       <c r="D159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B160" s="7">
         <v>4</v>
@@ -4053,10 +4560,13 @@
       <c r="D160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B161" s="7">
         <v>4</v>
@@ -4067,10 +4577,13 @@
       <c r="D161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B162" s="7">
         <v>4</v>
@@ -4081,10 +4594,13 @@
       <c r="D162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B163" s="7">
         <v>4</v>
@@ -4095,10 +4611,13 @@
       <c r="D163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B164" s="7">
         <v>8</v>
@@ -4109,10 +4628,13 @@
       <c r="D164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B165" s="7">
         <v>8</v>
@@ -4123,10 +4645,13 @@
       <c r="D165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B166" s="7">
         <v>8</v>
@@ -4137,10 +4662,13 @@
       <c r="D166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B167" s="7">
         <v>8</v>
@@ -4151,10 +4679,13 @@
       <c r="D167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B168" s="7">
         <v>8</v>
@@ -4165,10 +4696,13 @@
       <c r="D168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B169" s="7">
         <v>8</v>
@@ -4179,10 +4713,13 @@
       <c r="D169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B170" s="7">
         <v>8</v>
@@ -4193,10 +4730,13 @@
       <c r="D170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B171" s="7">
         <v>8</v>
@@ -4207,10 +4747,13 @@
       <c r="D171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B172" s="7">
         <v>8</v>
@@ -4221,10 +4764,13 @@
       <c r="D172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B173" s="7">
         <v>8</v>
@@ -4235,10 +4781,13 @@
       <c r="D173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B174" s="7">
         <v>8</v>
@@ -4249,10 +4798,13 @@
       <c r="D174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B175" s="7">
         <v>8</v>
@@ -4263,10 +4815,13 @@
       <c r="D175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B176" s="7">
         <v>8</v>
@@ -4277,10 +4832,13 @@
       <c r="D176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B177" s="7">
         <v>8</v>
@@ -4291,10 +4849,13 @@
       <c r="D177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B178" s="7">
         <v>8</v>
@@ -4305,10 +4866,13 @@
       <c r="D178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>42</v>
+      <c r="E178" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="B179" s="7">
         <v>8</v>
@@ -4319,10 +4883,13 @@
       <c r="D179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>43</v>
+      <c r="E179" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="B180" s="7">
         <v>8</v>
@@ -4333,10 +4900,13 @@
       <c r="D180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B181" s="7">
         <v>1</v>
@@ -4347,10 +4917,13 @@
       <c r="D181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B182" s="7">
         <v>1</v>
@@ -4361,10 +4934,13 @@
       <c r="D182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B183" s="7">
         <v>1</v>
@@ -4375,10 +4951,13 @@
       <c r="D183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B184" s="7">
         <v>1</v>
@@ -4389,10 +4968,13 @@
       <c r="D184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B185" s="7">
         <v>1</v>
@@ -4403,10 +4985,13 @@
       <c r="D185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B186" s="7">
         <v>1</v>
@@ -4417,10 +5002,13 @@
       <c r="D186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B187" s="7">
         <v>1</v>
@@ -4431,10 +5019,13 @@
       <c r="D187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B188" s="7">
         <v>1</v>
@@ -4445,10 +5036,13 @@
       <c r="D188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B189" s="7">
         <v>1</v>
@@ -4459,10 +5053,13 @@
       <c r="D189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B190" s="7">
         <v>1</v>
@@ -4473,10 +5070,13 @@
       <c r="D190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B191" s="7">
         <v>1</v>
@@ -4487,10 +5087,13 @@
       <c r="D191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B192" s="7">
         <v>10</v>
@@ -4501,10 +5104,13 @@
       <c r="D192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B193" s="7">
         <v>10</v>
@@ -4515,10 +5121,13 @@
       <c r="D193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B194" s="7">
         <v>10</v>
@@ -4529,10 +5138,13 @@
       <c r="D194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B195" s="7">
         <v>10</v>
@@ -4543,10 +5155,13 @@
       <c r="D195">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B196" s="7">
         <v>10</v>
@@ -4557,10 +5172,13 @@
       <c r="D196">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B197" s="7">
         <v>10</v>
@@ -4571,10 +5189,13 @@
       <c r="D197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B198" s="7">
         <v>10</v>
@@ -4585,10 +5206,13 @@
       <c r="D198">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B199" s="7">
         <v>10</v>
@@ -4599,10 +5223,13 @@
       <c r="D199">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B200" s="7">
         <v>10</v>
@@ -4613,10 +5240,13 @@
       <c r="D200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B201" s="7">
         <v>10</v>
@@ -4627,10 +5257,13 @@
       <c r="D201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B202" s="7">
         <v>10</v>
@@ -4641,10 +5274,13 @@
       <c r="D202">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B203" s="7">
         <v>10</v>
@@ -4655,10 +5291,13 @@
       <c r="D203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B204" s="7">
         <v>10</v>
@@ -4669,10 +5308,13 @@
       <c r="D204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B205" s="7">
         <v>10</v>
@@ -4683,10 +5325,13 @@
       <c r="D205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B206" s="7">
         <v>10</v>
@@ -4697,10 +5342,13 @@
       <c r="D206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B207" s="7">
         <v>10</v>
@@ -4711,10 +5359,13 @@
       <c r="D207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B208" s="7">
         <v>10</v>
@@ -4725,10 +5376,13 @@
       <c r="D208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B209" s="7">
         <v>10</v>
@@ -4739,10 +5393,13 @@
       <c r="D209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B210" s="7">
         <v>10</v>
@@ -4753,10 +5410,13 @@
       <c r="D210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B211" s="7">
         <v>10</v>
@@ -4767,10 +5427,13 @@
       <c r="D211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B212" s="7">
         <v>10</v>
@@ -4781,10 +5444,13 @@
       <c r="D212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B213" s="7">
         <v>10</v>
@@ -4795,8 +5461,11 @@
       <c r="D213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>4</v>
       </c>
@@ -4809,10 +5478,13 @@
       <c r="D214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B215" s="7">
         <v>6</v>
@@ -4823,10 +5495,13 @@
       <c r="D215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B216" s="7">
         <v>6</v>
@@ -4837,10 +5512,13 @@
       <c r="D216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B217" s="7">
         <v>6</v>
@@ -4851,10 +5529,13 @@
       <c r="D217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B218" s="7">
         <v>6</v>
@@ -4865,10 +5546,13 @@
       <c r="D218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B219" s="7">
         <v>6</v>
@@ -4879,10 +5563,13 @@
       <c r="D219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B220" s="7">
         <v>6</v>
@@ -4893,10 +5580,13 @@
       <c r="D220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B221" s="7">
         <v>6</v>
@@ -4907,10 +5597,13 @@
       <c r="D221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B222" s="7">
         <v>6</v>
@@ -4921,10 +5614,13 @@
       <c r="D222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B223" s="7">
         <v>6</v>
@@ -4935,10 +5631,13 @@
       <c r="D223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B224" s="7">
         <v>6</v>
@@ -4949,10 +5648,13 @@
       <c r="D224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B225" s="7">
         <v>6</v>
@@ -4963,10 +5665,13 @@
       <c r="D225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B226" s="7">
         <v>6</v>
@@ -4977,10 +5682,13 @@
       <c r="D226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B227" s="7">
         <v>6</v>
@@ -4991,10 +5699,13 @@
       <c r="D227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B228" s="7">
         <v>3</v>
@@ -5005,10 +5716,13 @@
       <c r="D228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B229" s="7">
         <v>3</v>
@@ -5019,10 +5733,13 @@
       <c r="D229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B230" s="7">
         <v>3</v>
@@ -5033,10 +5750,13 @@
       <c r="D230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B231" s="7">
         <v>3</v>
@@ -5047,10 +5767,13 @@
       <c r="D231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B232" s="7">
         <v>3</v>
@@ -5061,10 +5784,13 @@
       <c r="D232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B233" s="7">
         <v>5</v>
@@ -5075,10 +5801,13 @@
       <c r="D233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B234" s="7">
         <v>5</v>
@@ -5089,10 +5818,13 @@
       <c r="D234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B235" s="7">
         <v>5</v>
@@ -5103,10 +5835,13 @@
       <c r="D235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B236" s="7">
         <v>2</v>
@@ -5117,10 +5852,13 @@
       <c r="D236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B237" s="7">
         <v>2</v>
@@ -5131,10 +5869,13 @@
       <c r="D237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B238" s="7">
         <v>2</v>
@@ -5145,10 +5886,13 @@
       <c r="D238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B239" s="7">
         <v>2</v>
@@ -5159,10 +5903,13 @@
       <c r="D239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B240" s="7">
         <v>2</v>
@@ -5173,10 +5920,13 @@
       <c r="D240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B241" s="7">
         <v>9</v>
@@ -5187,10 +5937,13 @@
       <c r="D241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B242" s="7">
         <v>9</v>
@@ -5201,10 +5954,13 @@
       <c r="D242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B243" s="7">
         <v>9</v>
@@ -5215,10 +5971,13 @@
       <c r="D243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B244" s="7">
         <v>9</v>
@@ -5229,10 +5988,13 @@
       <c r="D244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B245" s="7">
         <v>9</v>
@@ -5243,10 +6005,13 @@
       <c r="D245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B246" s="7">
         <v>9</v>
@@ -5257,10 +6022,13 @@
       <c r="D246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B247" s="7">
         <v>9</v>
@@ -5271,10 +6039,13 @@
       <c r="D247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B248" s="7">
         <v>9</v>
@@ -5285,10 +6056,13 @@
       <c r="D248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B249" s="7">
         <v>9</v>
@@ -5299,10 +6073,13 @@
       <c r="D249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B250" s="7">
         <v>9</v>
@@ -5313,10 +6090,13 @@
       <c r="D250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B251" s="7">
         <v>7</v>
@@ -5327,10 +6107,13 @@
       <c r="D251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B252" s="7">
         <v>7</v>
@@ -5341,10 +6124,13 @@
       <c r="D252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B253" s="7">
         <v>7</v>
@@ -5355,10 +6141,13 @@
       <c r="D253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B254" s="7">
         <v>7</v>
@@ -5369,10 +6158,13 @@
       <c r="D254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B255" s="7">
         <v>7</v>
@@ -5383,10 +6175,13 @@
       <c r="D255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B256" s="7">
         <v>7</v>
@@ -5397,10 +6192,13 @@
       <c r="D256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B257" s="7">
         <v>7</v>
@@ -5411,10 +6209,13 @@
       <c r="D257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B258" s="7">
         <v>7</v>
@@ -5425,10 +6226,13 @@
       <c r="D258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B259" s="7">
         <v>7</v>
@@ -5439,10 +6243,13 @@
       <c r="D259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B260" s="7">
         <v>7</v>
@@ -5453,10 +6260,13 @@
       <c r="D260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B261" s="7">
         <v>7</v>
@@ -5467,10 +6277,13 @@
       <c r="D261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B262" s="7">
         <v>7</v>
@@ -5481,10 +6294,13 @@
       <c r="D262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B263" s="7">
         <v>7</v>
@@ -5495,10 +6311,13 @@
       <c r="D263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B264" s="7">
         <v>7</v>
@@ -5509,10 +6328,13 @@
       <c r="D264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B265" s="7">
         <v>4</v>
@@ -5523,10 +6345,13 @@
       <c r="D265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B266" s="7">
         <v>4</v>
@@ -5537,10 +6362,13 @@
       <c r="D266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B267" s="7">
         <v>4</v>
@@ -5551,10 +6379,13 @@
       <c r="D267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B268" s="7">
         <v>4</v>
@@ -5565,10 +6396,13 @@
       <c r="D268">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B269" s="7">
         <v>4</v>
@@ -5579,10 +6413,13 @@
       <c r="D269">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B270" s="7">
         <v>4</v>
@@ -5593,10 +6430,13 @@
       <c r="D270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B271" s="7">
         <v>4</v>
@@ -5607,10 +6447,13 @@
       <c r="D271">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B272" s="7">
         <v>4</v>
@@ -5621,10 +6464,13 @@
       <c r="D272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B273" s="7">
         <v>4</v>
@@ -5635,10 +6481,13 @@
       <c r="D273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B274" s="7">
         <v>4</v>
@@ -5649,10 +6498,13 @@
       <c r="D274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B275" s="7">
         <v>4</v>
@@ -5663,8 +6515,11 @@
       <c r="D275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>5</v>
       </c>
@@ -5677,10 +6532,13 @@
       <c r="D276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B277" s="7">
         <v>8</v>
@@ -5691,10 +6549,13 @@
       <c r="D277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B278" s="7">
         <v>8</v>
@@ -5705,10 +6566,13 @@
       <c r="D278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B279" s="7">
         <v>8</v>
@@ -5719,10 +6583,13 @@
       <c r="D279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B280" s="7">
         <v>8</v>
@@ -5733,10 +6600,13 @@
       <c r="D280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B281" s="7">
         <v>8</v>
@@ -5747,10 +6617,13 @@
       <c r="D281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B282" s="7">
         <v>1</v>
@@ -5761,10 +6634,13 @@
       <c r="D282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B283" s="7">
         <v>1</v>
@@ -5775,10 +6651,13 @@
       <c r="D283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B284" s="7">
         <v>1</v>
@@ -5789,10 +6668,13 @@
       <c r="D284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B285" s="7">
         <v>1</v>
@@ -5803,8 +6685,11 @@
       <c r="D285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>6</v>
       </c>
@@ -5817,10 +6702,13 @@
       <c r="D286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B287" s="7">
         <v>1</v>
@@ -5831,10 +6719,13 @@
       <c r="D287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B288" s="7">
         <v>10</v>
@@ -5845,10 +6736,13 @@
       <c r="D288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B289" s="7">
         <v>10</v>
@@ -5859,10 +6753,13 @@
       <c r="D289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B290" s="7">
         <v>10</v>
@@ -5873,10 +6770,13 @@
       <c r="D290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B291" s="7">
         <v>10</v>
@@ -5887,10 +6787,13 @@
       <c r="D291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B292" s="7">
         <v>10</v>
@@ -5901,8 +6804,11 @@
       <c r="D292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>7</v>
       </c>
@@ -5915,10 +6821,13 @@
       <c r="D293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B294" s="7">
         <v>10</v>
@@ -5928,6 +6837,9 @@
       </c>
       <c r="D294">
         <v>293</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
